--- a/biology/Botanique/Carex_radiata/Carex_radiata.xlsx
+++ b/biology/Botanique/Carex_radiata/Carex_radiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex rayonnant
-Carex radiata, en français Carex rayonnant[1], est une espèce de plantes du genre Carex et de la famille des Cyperaceae, indigène en Amérique du Nord[1].
+Carex radiata, en français Carex rayonnant, est une espèce de plantes du genre Carex et de la famille des Cyperaceae, indigène en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La plante a été décrite pour la première fois par Göran Wahlenberg sous le nom de Carex stellulata var. radiata (basionyme) en tant que variété de Carex stellulata, puis a été renommée en 1903 par John Kunkel Small sous le nom de Carex radiata en tant qu'espèce à part entière. Aucune sous-espèce n'est répertoriée[2].
-Carex radiata a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La plante a été décrite pour la première fois par Göran Wahlenberg sous le nom de Carex stellulata var. radiata (basionyme) en tant que variété de Carex stellulata, puis a été renommée en 1903 par John Kunkel Small sous le nom de Carex radiata en tant qu'espèce à part entière. Aucune sous-espèce n'est répertoriée.
+Carex radiata a pour synonymes :
 Carex rosea var. minor Boott
 Carex rosea var. radiata (Wahlenb.) Dewey
 Carex radiata var. staminea Beck ex Howe
